--- a/docs/StructureDefinition-CareConnect-Subscore-Observation-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Subscore-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="550">
   <si>
     <t>Path</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -4455,7 +4458,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4497,10 +4500,10 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4623,7 +4626,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4740,7 +4743,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4763,19 +4766,19 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4824,7 +4827,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4845,10 +4848,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4859,7 +4862,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4974,7 +4977,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5091,7 +5094,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5117,23 +5120,23 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -5175,7 +5178,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5196,10 +5199,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5210,7 +5213,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5236,13 +5239,13 @@
         <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5292,7 +5295,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5313,10 +5316,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5327,7 +5330,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5353,21 +5356,21 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5409,7 +5412,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5430,10 +5433,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5470,21 +5473,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5526,7 +5529,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5547,10 +5550,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5561,7 +5564,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5584,19 +5587,19 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5645,7 +5648,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5666,10 +5669,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5680,7 +5683,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5706,16 +5709,16 @@
         <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5764,7 +5767,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5785,10 +5788,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5799,11 +5802,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5825,14 +5828,14 @@
         <v>142</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5860,10 +5863,10 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5881,7 +5884,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>56</v>
@@ -5896,27 +5899,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5939,19 +5942,19 @@
         <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6000,7 +6003,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6015,19 +6018,19 @@
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -6035,11 +6038,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6058,19 +6061,19 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6119,7 +6122,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6134,19 +6137,19 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6154,11 +6157,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6177,19 +6180,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6238,7 +6241,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6253,19 +6256,19 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6296,16 +6299,16 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6355,7 +6358,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6376,13 +6379,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6390,7 +6393,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6413,17 +6416,17 @@
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6472,7 +6475,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6487,19 +6490,19 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6507,7 +6510,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6530,19 +6533,19 @@
         <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6591,7 +6594,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6600,33 +6603,33 @@
         <v>56</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6652,16 +6655,16 @@
         <v>142</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6689,10 +6692,10 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6710,7 +6713,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6719,13 +6722,13 @@
         <v>56</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
@@ -6734,7 +6737,7 @@
         <v>99</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6745,11 +6748,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6771,14 +6774,14 @@
         <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6806,10 +6809,10 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6827,7 +6830,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6845,24 +6848,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6888,14 +6891,14 @@
         <v>120</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6944,7 +6947,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6959,16 +6962,16 @@
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6979,7 +6982,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7005,13 +7008,13 @@
         <v>142</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7037,13 +7040,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7061,7 +7064,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7079,24 +7082,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7211,7 +7214,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7328,7 +7331,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7351,19 +7354,19 @@
         <v>57</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7400,7 +7403,7 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
@@ -7410,7 +7413,7 @@
         <v>129</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7431,10 +7434,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7445,10 +7448,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>45</v>
@@ -7470,19 +7473,19 @@
         <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7531,7 +7534,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7552,10 +7555,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7566,7 +7569,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7681,7 +7684,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7707,10 +7710,10 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7796,10 +7799,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>45</v>
@@ -7821,13 +7824,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7913,7 +7916,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7939,23 +7942,23 @@
         <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -7997,7 +8000,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8018,10 +8021,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8032,7 +8035,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8058,13 +8061,13 @@
         <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8114,7 +8117,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8135,10 +8138,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8149,7 +8152,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8175,14 +8178,14 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8231,7 +8234,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8252,10 +8255,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8266,7 +8269,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8292,14 +8295,14 @@
         <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8348,7 +8351,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8369,10 +8372,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8383,7 +8386,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8406,19 +8409,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8467,7 +8470,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8488,10 +8491,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8502,7 +8505,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8528,16 +8531,16 @@
         <v>120</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8586,7 +8589,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8607,10 +8610,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8621,7 +8624,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8647,16 +8650,16 @@
         <v>142</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8681,13 +8684,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8705,7 +8708,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8726,10 +8729,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8740,7 +8743,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8855,7 +8858,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8972,7 +8975,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8995,19 +8998,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9044,7 +9047,7 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
@@ -9054,7 +9057,7 @@
         <v>129</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9075,10 +9078,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9089,10 +9092,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9114,19 +9117,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9151,13 +9154,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9175,7 +9178,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9196,10 +9199,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9325,7 +9328,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9351,10 +9354,10 @@
         <v>102</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9440,10 +9443,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>45</v>
@@ -9465,13 +9468,13 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9557,7 +9560,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9583,23 +9586,23 @@
         <v>69</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>45</v>
@@ -9641,7 +9644,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9662,10 +9665,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9676,7 +9679,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9702,13 +9705,13 @@
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9758,7 +9761,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9779,10 +9782,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9793,7 +9796,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9819,14 +9822,14 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9875,7 +9878,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9896,10 +9899,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9936,14 +9939,14 @@
         <v>120</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9992,7 +9995,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10013,10 +10016,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10027,7 +10030,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10050,19 +10053,19 @@
         <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10111,7 +10114,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10132,10 +10135,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10146,7 +10149,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10172,16 +10175,16 @@
         <v>120</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10230,7 +10233,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10251,10 +10254,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10265,7 +10268,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10288,16 +10291,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10347,7 +10350,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10365,24 +10368,24 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10405,16 +10408,16 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10464,7 +10467,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10482,24 +10485,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10522,19 +10525,19 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10583,7 +10586,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10595,7 +10598,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10604,10 +10607,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10733,7 +10736,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10850,11 +10853,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10879,7 +10882,7 @@
         <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>105</v>
@@ -10932,7 +10935,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10967,7 +10970,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10990,13 +10993,13 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11047,7 +11050,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11056,7 +11059,7 @@
         <v>56</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>45</v>
@@ -11068,10 +11071,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11082,7 +11085,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11105,13 +11108,13 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11162,7 +11165,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11171,7 +11174,7 @@
         <v>56</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>45</v>
@@ -11183,10 +11186,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11223,16 +11226,16 @@
         <v>142</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11260,10 +11263,10 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
@@ -11281,7 +11284,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11299,13 +11302,13 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11316,7 +11319,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11342,16 +11345,16 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11376,13 +11379,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11400,7 +11403,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11418,13 +11421,13 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11435,7 +11438,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11458,17 +11461,17 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11517,7 +11520,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11541,7 +11544,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11552,7 +11555,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11578,10 +11581,10 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11632,7 +11635,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11653,10 +11656,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11667,7 +11670,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11690,19 +11693,19 @@
         <v>57</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11751,7 +11754,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11763,7 +11766,7 @@
         <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>45</v>
@@ -11772,10 +11775,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11786,7 +11789,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11901,7 +11904,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12018,11 +12021,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12047,7 +12050,7 @@
         <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>105</v>
@@ -12100,7 +12103,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12135,7 +12138,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12161,23 +12164,23 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>45</v>
@@ -12198,10 +12201,10 @@
         <v>136</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12219,7 +12222,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12243,7 +12246,7 @@
         <v>99</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12254,7 +12257,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12277,13 +12280,13 @@
         <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12334,7 +12337,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>56</v>
@@ -12358,7 +12361,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12369,7 +12372,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12392,19 +12395,19 @@
         <v>57</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12453,7 +12456,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12465,7 +12468,7 @@
         <v>45</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>45</v>
@@ -12474,10 +12477,10 @@
         <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12488,7 +12491,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12603,7 +12606,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12720,11 +12723,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12749,7 +12752,7 @@
         <v>108</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>105</v>
@@ -12802,7 +12805,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12837,7 +12840,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12863,14 +12866,14 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -12898,10 +12901,10 @@
         <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -12919,7 +12922,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>56</v>
@@ -12937,16 +12940,16 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>45</v>
@@ -12954,7 +12957,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12977,19 +12980,19 @@
         <v>57</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13038,7 +13041,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13056,24 +13059,24 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13099,16 +13102,16 @@
         <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13136,10 +13139,10 @@
         <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -13157,7 +13160,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13166,7 +13169,7 @@
         <v>56</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>45</v>
@@ -13181,7 +13184,7 @@
         <v>99</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13192,11 +13195,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13218,16 +13221,16 @@
         <v>142</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13255,10 +13258,10 @@
         <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>45</v>
@@ -13276,7 +13279,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13294,24 +13297,24 @@
         <v>45</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13337,16 +13340,16 @@
         <v>45</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13395,7 +13398,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13416,10 +13419,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
